--- a/median1 (2).xlsx
+++ b/median1 (2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbohnstedt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbo73\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AC9C27-9ED4-4014-BCF2-8F1A491F6C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AD4C4E-2C90-4F53-9013-51618093B5A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$3407</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="1542">
   <si>
     <t>NASDAQ</t>
   </si>
@@ -4439,6 +4447,216 @@
   </si>
   <si>
     <t>CCRC</t>
+  </si>
+  <si>
+    <t>2B77.DE</t>
+  </si>
+  <si>
+    <t>2B76.DE</t>
+  </si>
+  <si>
+    <t>EXS1.DE</t>
+  </si>
+  <si>
+    <t>CSX5.L</t>
+  </si>
+  <si>
+    <t>SXR7.DE</t>
+  </si>
+  <si>
+    <t>EUNN.DE</t>
+  </si>
+  <si>
+    <t>CPJ1.L</t>
+  </si>
+  <si>
+    <t>L0CK.DE</t>
+  </si>
+  <si>
+    <t>2B79.DE</t>
+  </si>
+  <si>
+    <t>EXI3.DE</t>
+  </si>
+  <si>
+    <t>IEVD.DE</t>
+  </si>
+  <si>
+    <t>IUS8.DE</t>
+  </si>
+  <si>
+    <t>SXRW.SG</t>
+  </si>
+  <si>
+    <t>IQQH.DE</t>
+  </si>
+  <si>
+    <t>IQQI.DE</t>
+  </si>
+  <si>
+    <t>WOOD.SW</t>
+  </si>
+  <si>
+    <t>IQQQ.DE</t>
+  </si>
+  <si>
+    <t>IS0E.DE</t>
+  </si>
+  <si>
+    <t>2B78.DE</t>
+  </si>
+  <si>
+    <t>IQQL.DE</t>
+  </si>
+  <si>
+    <t>EXS3.DE</t>
+  </si>
+  <si>
+    <t>CSCA.MI</t>
+  </si>
+  <si>
+    <t>EUNM.DE</t>
+  </si>
+  <si>
+    <t>SXRJ.DE</t>
+  </si>
+  <si>
+    <t>IMEA.L</t>
+  </si>
+  <si>
+    <t>CSUS.MI</t>
+  </si>
+  <si>
+    <t>36BB.DE</t>
+  </si>
+  <si>
+    <t>CBUF.DE</t>
+  </si>
+  <si>
+    <t>EXXT.DE</t>
+  </si>
+  <si>
+    <t>BTEC.L</t>
+  </si>
+  <si>
+    <t>IUCD.SW</t>
+  </si>
+  <si>
+    <t>2B7D.DE</t>
+  </si>
+  <si>
+    <t>EX30.VI</t>
+  </si>
+  <si>
+    <t>EXV4.DE</t>
+  </si>
+  <si>
+    <t>EX43.VI</t>
+  </si>
+  <si>
+    <t>EX41.VI</t>
+  </si>
+  <si>
+    <t>EXS2.DE</t>
+  </si>
+  <si>
+    <t>CEM2.DE</t>
+  </si>
+  <si>
+    <t>DBK.DE</t>
+  </si>
+  <si>
+    <t>EOAN.DE</t>
+  </si>
+  <si>
+    <t>CBK.DE</t>
+  </si>
+  <si>
+    <t>IFX.DE</t>
+  </si>
+  <si>
+    <t>DTE.DE</t>
+  </si>
+  <si>
+    <t>TN8.F</t>
+  </si>
+  <si>
+    <t>LHA.DE</t>
+  </si>
+  <si>
+    <t>3V64.DE</t>
+  </si>
+  <si>
+    <t>DAI.DE</t>
+  </si>
+  <si>
+    <t>ECJ.F</t>
+  </si>
+  <si>
+    <t>NDA.DE</t>
+  </si>
+  <si>
+    <t>AUD.DE</t>
+  </si>
+  <si>
+    <t>TUI1.DE</t>
+  </si>
+  <si>
+    <t>NESN.SW</t>
+  </si>
+  <si>
+    <t>DPW.DE</t>
+  </si>
+  <si>
+    <t>ZGY.F</t>
+  </si>
+  <si>
+    <t>TKA.DE</t>
+  </si>
+  <si>
+    <t>0LTG.L</t>
+  </si>
+  <si>
+    <t>DRW3.DE</t>
+  </si>
+  <si>
+    <t>GIS.DE</t>
+  </si>
+  <si>
+    <t>3HM.F</t>
+  </si>
+  <si>
+    <t>MSF.DE</t>
+  </si>
+  <si>
+    <t>RWE.DE</t>
+  </si>
+  <si>
+    <t>ALV.DE</t>
+  </si>
+  <si>
+    <t>BMW.DE</t>
+  </si>
+  <si>
+    <t>BAS.DE</t>
+  </si>
+  <si>
+    <t>BAYN.DE</t>
+  </si>
+  <si>
+    <t>WDI.DE</t>
+  </si>
+  <si>
+    <t>MRK.DE</t>
+  </si>
+  <si>
+    <t>NTO.F</t>
+  </si>
+  <si>
+    <t>NEM.DE</t>
+  </si>
+  <si>
+    <t>PSM.DE</t>
   </si>
 </sst>
 </file>
@@ -4467,7 +4685,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4490,14 +4708,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4803,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1453" workbookViewId="0">
-      <selection activeCell="X1479" sqref="X1479"/>
+    <sheetView tabSelected="1" topLeftCell="A1471" workbookViewId="0">
+      <selection activeCell="E1495" sqref="E1495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20989,245 +21237,455 @@
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1472" s="1"/>
-    </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1472" s="2" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1473" s="1"/>
-    </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1473" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1474" s="1"/>
-    </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1474" s="2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1475" s="1"/>
-    </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1475" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1476" s="1"/>
-    </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1476" s="2" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1477" s="1"/>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1477" s="2" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1478" s="1"/>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1478" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1479" s="1"/>
-    </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1479" s="2" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1480" s="1"/>
-    </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1480" s="2" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1481" s="1"/>
-    </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1481" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1482" s="1"/>
-    </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1482" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1483" s="1"/>
-    </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1483" s="2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1484" s="1"/>
-    </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1484" s="2" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1485" s="1"/>
-    </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1485" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1486" s="1"/>
-    </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1486" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1487" s="1"/>
-    </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1487" s="2" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1488" s="1"/>
-    </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1488" s="2" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1489" s="1"/>
-    </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1489" s="2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1490" s="1"/>
-    </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1490" s="2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1491" s="1"/>
-    </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1491" s="2" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1492" s="1"/>
-    </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1492" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1493" s="1"/>
-    </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1493" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1494" s="1"/>
-    </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1494" s="2" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1495" s="1"/>
-    </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1495" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1496" s="1"/>
-    </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1496" s="2" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1497" s="1"/>
-    </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1497" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1498" s="1"/>
-    </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1498" s="2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1499" s="1"/>
-    </row>
-    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1499" s="2" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1500" s="1"/>
-    </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1500" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1501" s="1"/>
-    </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1501" s="2" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1502" s="1"/>
-    </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1502" s="2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1503" s="1"/>
-    </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1503" s="2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1504" s="1"/>
-    </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1504" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1505" s="1"/>
-    </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1505" s="2" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1506" s="1"/>
-    </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1506" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1507" s="1"/>
-    </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1507" s="2" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1508" s="1"/>
-    </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1508" s="2" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1509" s="1"/>
-    </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1509" s="2" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1510" s="1"/>
-    </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1510" s="2" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1511" s="1"/>
-    </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1511" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1512" s="1"/>
-    </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1512" s="2" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1513" s="1"/>
-    </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1513" s="2" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1514" s="1"/>
-    </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1514" s="2" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1515" s="1"/>
-    </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1515" s="2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1516" s="1"/>
-    </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1516" s="2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1517" s="1"/>
-    </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1517" s="2" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1518" s="1"/>
-    </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1518" s="2" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1519" s="1"/>
-    </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1519" s="2" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1520" s="1"/>
-    </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1520" s="2" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1521" s="1"/>
-    </row>
-    <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1521" s="2" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1522" s="1"/>
-    </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1522" s="2" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1523" s="1"/>
-    </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1523" s="2" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1524" s="1"/>
-    </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1524" s="2" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1525" s="1"/>
-    </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1525" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1526" s="1"/>
-    </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1526" s="2" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1527" s="1"/>
-    </row>
-    <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1527" s="2" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1528" s="1"/>
-    </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1528" s="2" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1529" s="1"/>
-    </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1529" s="2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1530" s="1"/>
-    </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1530" s="2" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1531" s="1"/>
-    </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1531" s="2" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1532" s="1"/>
-    </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1532" s="2" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1533" s="1"/>
-    </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1533" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1534" s="1"/>
-    </row>
-    <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1534" s="2" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1535" s="1"/>
-    </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1535" s="2" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1536" s="1"/>
-    </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1536" s="2" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1537" s="1"/>
-    </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1537" s="2" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1538" s="1"/>
-    </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1538" s="2" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1539" s="1"/>
-    </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1539" s="2" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1540" s="1"/>
-    </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1540" s="2" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1541" s="1"/>
-    </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1541" s="3" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1542" s="1"/>
     </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1543" s="1"/>
     </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1544" s="1"/>
     </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1545" s="1"/>
     </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1546" s="1"/>
     </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1547" s="1"/>
     </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1548" s="1"/>
     </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1549" s="1"/>
     </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1550" s="1"/>
     </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1551" s="1"/>
     </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1552" s="1"/>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.25">
